--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5670EBA0-4DF3-1A41-9448-EF2C4B4D1E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97BB1B3-E764-BB43-9CD2-0C2E7C6CFDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -38,10 +38,10 @@
     <t>session</t>
   </si>
   <si>
-    <t>freq</t>
+    <t>help</t>
   </si>
   <si>
-    <t>help</t>
+    <t>freq</t>
   </si>
 </sst>
 </file>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -406,10 +406,21 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97BB1B3-E764-BB43-9CD2-0C2E7C6CFDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3423E1BF-0E01-C84F-A543-201DD23BFBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -423,6 +423,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3423E1BF-0E01-C84F-A543-201DD23BFBAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB21BC-3A3F-434C-A768-41B62DE9EC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,6 +434,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEB21BC-3A3F-434C-A768-41B62DE9EC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5892094-9BF4-AB47-A91E-064296B912A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,6 +445,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5892094-9BF4-AB47-A91E-064296B912A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5381652-86F1-EC4B-88C4-8589995CB81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,6 +456,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5381652-86F1-EC4B-88C4-8589995CB81A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FEBF6B-295D-3643-BEB3-6E6A3C9CB916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,6 +467,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FEBF6B-295D-3643-BEB3-6E6A3C9CB916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E5DD0-A197-7B42-A01C-746147CF54A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -478,6 +478,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E5DD0-A197-7B42-A01C-746147CF54A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257DB823-A458-FB47-AAAD-9D8E6A93E055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35880" yWindow="5260" windowWidth="27240" windowHeight="15420" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
+    <workbookView xWindow="36380" yWindow="5520" windowWidth="28800" windowHeight="16160" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,6 +489,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257DB823-A458-FB47-AAAD-9D8E6A93E055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9698D-40F8-CF43-A80F-2DF352FB4301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36380" yWindow="5520" windowWidth="28800" windowHeight="16160" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>session</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>freq_2</t>
+  </si>
+  <si>
+    <t>help_2</t>
   </si>
 </sst>
 </file>
@@ -393,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +417,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -423,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -434,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6</v>
       </c>
@@ -445,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7</v>
       </c>
@@ -456,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -467,7 +479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>9</v>
       </c>
@@ -478,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>10</v>
       </c>
@@ -489,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>11</v>
       </c>
@@ -498,6 +510,23 @@
       </c>
       <c r="C9">
         <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/GASY_strategy.xlsx
+++ b/data/GASY_strategy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C9698D-40F8-CF43-A80F-2DF352FB4301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E4E1C6-D21D-354B-8428-7CD84827C4BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36380" yWindow="5520" windowWidth="28800" windowHeight="16160" xr2:uid="{3ED843D8-AEB1-3D4E-B337-98446BB2CE17}"/>
   </bookViews>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE9047-D882-FB41-A98E-BEB988A70E9C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,6 +529,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
